--- a/Banco Central/3/3/Swap promedio cámara 2021 - Diaria.xlsx
+++ b/Banco Central/3/3/Swap promedio cámara 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>Serie</t>
   </si>
@@ -482,6 +482,21 @@
   </si>
   <si>
     <t>23-07-2021</t>
+  </si>
+  <si>
+    <t>26-07-2021</t>
+  </si>
+  <si>
+    <t>27-07-2021</t>
+  </si>
+  <si>
+    <t>28-07-2021</t>
+  </si>
+  <si>
+    <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
   </si>
 </sst>
 </file>
@@ -839,7 +854,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M144"/>
+  <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6749,6 +6764,211 @@
         <v>1.04</v>
       </c>
     </row>
+    <row r="145" spans="1:13">
+      <c r="A145" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145">
+        <v>2.39</v>
+      </c>
+      <c r="C145">
+        <v>2.73</v>
+      </c>
+      <c r="D145">
+        <v>3.02</v>
+      </c>
+      <c r="E145">
+        <v>3.29</v>
+      </c>
+      <c r="F145">
+        <v>4.1</v>
+      </c>
+      <c r="G145">
+        <v>-1.92</v>
+      </c>
+      <c r="H145">
+        <v>-0.96</v>
+      </c>
+      <c r="I145">
+        <v>-0.55</v>
+      </c>
+      <c r="J145">
+        <v>-0.21</v>
+      </c>
+      <c r="K145">
+        <v>0.05</v>
+      </c>
+      <c r="L145">
+        <v>0.88</v>
+      </c>
+      <c r="M145">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146">
+        <v>2.5</v>
+      </c>
+      <c r="C146">
+        <v>2.87</v>
+      </c>
+      <c r="D146">
+        <v>3.17</v>
+      </c>
+      <c r="E146">
+        <v>3.43</v>
+      </c>
+      <c r="F146">
+        <v>4.28</v>
+      </c>
+      <c r="G146">
+        <v>-1.88</v>
+      </c>
+      <c r="H146">
+        <v>-0.83</v>
+      </c>
+      <c r="I146">
+        <v>-0.4</v>
+      </c>
+      <c r="J146">
+        <v>-0.05</v>
+      </c>
+      <c r="K146">
+        <v>0.22</v>
+      </c>
+      <c r="L146">
+        <v>1.07</v>
+      </c>
+      <c r="M146">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147">
+        <v>2.58</v>
+      </c>
+      <c r="C147">
+        <v>2.94</v>
+      </c>
+      <c r="D147">
+        <v>3.24</v>
+      </c>
+      <c r="E147">
+        <v>3.5</v>
+      </c>
+      <c r="F147">
+        <v>4.31</v>
+      </c>
+      <c r="G147">
+        <v>-1.7</v>
+      </c>
+      <c r="H147">
+        <v>-0.76</v>
+      </c>
+      <c r="I147">
+        <v>-0.33</v>
+      </c>
+      <c r="J147">
+        <v>0.03</v>
+      </c>
+      <c r="K147">
+        <v>0.29</v>
+      </c>
+      <c r="L147">
+        <v>1.11</v>
+      </c>
+      <c r="M147">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148" t="s">
+        <v>159</v>
+      </c>
+      <c r="B148">
+        <v>2.56</v>
+      </c>
+      <c r="C148">
+        <v>2.92</v>
+      </c>
+      <c r="D148">
+        <v>3.21</v>
+      </c>
+      <c r="E148">
+        <v>3.47</v>
+      </c>
+      <c r="F148">
+        <v>4.27</v>
+      </c>
+      <c r="G148">
+        <v>-1.66</v>
+      </c>
+      <c r="H148">
+        <v>-0.74</v>
+      </c>
+      <c r="I148">
+        <v>-0.33</v>
+      </c>
+      <c r="J148">
+        <v>0.02</v>
+      </c>
+      <c r="K148">
+        <v>0.28</v>
+      </c>
+      <c r="L148">
+        <v>1.09</v>
+      </c>
+      <c r="M148">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" t="s">
+        <v>160</v>
+      </c>
+      <c r="B149">
+        <v>2.51</v>
+      </c>
+      <c r="C149">
+        <v>2.86</v>
+      </c>
+      <c r="D149">
+        <v>3.16</v>
+      </c>
+      <c r="E149">
+        <v>3.42</v>
+      </c>
+      <c r="F149">
+        <v>4.21</v>
+      </c>
+      <c r="G149">
+        <v>-1.6</v>
+      </c>
+      <c r="H149">
+        <v>-0.79</v>
+      </c>
+      <c r="I149">
+        <v>-0.39</v>
+      </c>
+      <c r="J149">
+        <v>-0.04</v>
+      </c>
+      <c r="K149">
+        <v>0.22</v>
+      </c>
+      <c r="L149">
+        <v>1.02</v>
+      </c>
+      <c r="M149">
+        <v>1.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
